--- a/Appendix_tables.xlsx
+++ b/Appendix_tables.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="drozdovapb"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="4" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="28800" windowHeight="12302" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId4"/>
@@ -17,22 +17,22 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1705386798" val="1050" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1705386798" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1705386798" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1705386798"/>
+      <pm:revision xmlns:pm="smNativeData" day="1713934013" val="1050" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1713934013" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1713934013" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1713934013"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="274">
-  <si>
-    <t>Table 1. Intraspecies genetic variability in Baikal amphipods</t>
-  </si>
-  <si>
-    <t>Таблица 1. Внутривидовое генетическое разнообразие байкальских амфипод</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="276">
+  <si>
+    <t>Supplementary Material 1. Intraspecies genetic variability in Baikal amphipods</t>
+  </si>
+  <si>
+    <t>Приложение 1. Внутривидовое генетическое разнообразие байкальских амфипод</t>
   </si>
   <si>
     <t>Species</t>
@@ -77,13 +77,16 @@
     <t>Yes, five lineages (proposed as subspecies)</t>
   </si>
   <si>
+    <t>Daneliya et al., 2014, doi: 10.1007/s10750-013-1671-x</t>
+  </si>
+  <si>
+    <t>17 (28S)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Daneliya et al., 2014</t>
-  </si>
-  <si>
-    <t>17 (28S)</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>-</t>
@@ -183,7 +186,7 @@
         <i/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1705386798">
+            <pm:charSpec xmlns:pm="smNativeData" id="1713934013">
               <pm:latin face="Arial" sz="200" weight="normal" i="1"/>
               <pm:cs/>
               <pm:ea/>
@@ -203,7 +206,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1705386798">
+            <pm:charSpec xmlns:pm="smNativeData" id="1713934013">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -223,7 +226,7 @@
         <i/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1705386798">
+            <pm:charSpec xmlns:pm="smNativeData" id="1713934013">
               <pm:latin face="Arial" sz="200" weight="normal" i="1"/>
               <pm:cs/>
               <pm:ea/>
@@ -243,7 +246,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1705386798">
+            <pm:charSpec xmlns:pm="smNativeData" id="1713934013">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -263,7 +266,7 @@
         <i/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1705386798">
+            <pm:charSpec xmlns:pm="smNativeData" id="1713934013">
               <pm:latin face="Arial" sz="200" weight="normal" i="1"/>
               <pm:cs/>
               <pm:ea/>
@@ -296,10 +299,7 @@
     <t>Gmelinoides fasciatus</t>
   </si>
   <si>
-    <t>28 (?)</t>
-  </si>
-  <si>
-    <t>Gomanenko et al. 2005; Bukin et al. 2018</t>
+    <t>Gomanenko et al. 2005; Fazalova et al. 2010; Bukin et al. 2018</t>
   </si>
   <si>
     <t>Eulimnogammarus cruentus</t>
@@ -356,13 +356,10 @@
     <t>Zaidykov et al., 2023</t>
   </si>
   <si>
-    <t>? добавить Micruropus / Pallasea  из Vainola! (NA образцов)</t>
-  </si>
-  <si>
-    <t>Table 2. Known genome sizes and karyotypes of Baikal amphipods</t>
-  </si>
-  <si>
-    <t>Таблица 2. Известные данные о размерах генома и кариотипа для байкальских амфипод</t>
+    <t>Supplementary Material 2. Known nuclear genome sizes and karyotypes of Baikal amphipods</t>
+  </si>
+  <si>
+    <t>Приложение 2. Известные данные о размерах ядерного генома и кариотипа для байкальских амфипод</t>
   </si>
   <si>
     <t>Genus</t>
@@ -410,7 +407,7 @@
     <t>lappaceus</t>
   </si>
   <si>
-    <t>Salemaa_Kamaltynov</t>
+    <t>Salemaa, Kamaltynov, 1994</t>
   </si>
   <si>
     <t>victorii</t>
@@ -425,7 +422,7 @@
     <t>seidlitzii</t>
   </si>
   <si>
-    <t>Baicalogammarus</t>
+    <t>Baikalogammarus</t>
   </si>
   <si>
     <t>pullus</t>
@@ -488,7 +485,7 @@
     <t>morawitzii</t>
   </si>
   <si>
-    <t>Kamaltynov2001</t>
+    <t>Kamaltynov, 2001</t>
   </si>
   <si>
     <t>Eucarinogammarus</t>
@@ -524,6 +521,9 @@
     <t>ussolzewii</t>
   </si>
   <si>
+    <t>violaceus</t>
+  </si>
+  <si>
     <t>verrucosus</t>
   </si>
   <si>
@@ -587,7 +587,13 @@
     <t>platycercus</t>
   </si>
   <si>
-    <t>wohlii</t>
+    <t>wohli</t>
+  </si>
+  <si>
+    <t>Odontogammarus</t>
+  </si>
+  <si>
+    <t>calcaratus</t>
   </si>
   <si>
     <t>Abludogammarus</t>
@@ -656,7 +662,7 @@
     <t>calceolata</t>
   </si>
   <si>
-    <t>Natyaganova_Sitnikova</t>
+    <t>Natyaganova, Sitnikova, 2012</t>
   </si>
   <si>
     <t>Sluginella</t>
@@ -665,10 +671,10 @@
     <t>ketlinskii</t>
   </si>
   <si>
-    <t>Table 3. Genome sequencing data for Baikal amphipods</t>
-  </si>
-  <si>
-    <t>Таблица 3. Данные секвенирования генома для байкальских амфипод</t>
+    <t>Supplementary Material 3. Whole genome sequencing data for Baikal amphipods</t>
+  </si>
+  <si>
+    <t>Приложение 3. Данные полногонемного секвенирования для байкальских амфипод</t>
   </si>
   <si>
     <t>Raw data, Gb</t>
@@ -719,10 +725,13 @@
     <t>SRX14901444; SRX14901445</t>
   </si>
   <si>
-    <t>Table 4. Mitochondrial genomes of Baikal amphipods</t>
-  </si>
-  <si>
-    <t>Таблица 4. Митохондриальные геномы байкальских амфипод</t>
+    <t>Romanova et al., 2021</t>
+  </si>
+  <si>
+    <t>Supplementary Material 4. Mitochondrial genomes of Baikal amphipods</t>
+  </si>
+  <si>
+    <t>Приложение 4. Митохондриальные геномы байкальских амфипод</t>
   </si>
   <si>
     <t>Complete / partial</t>
@@ -749,9 +758,6 @@
     <t>KX341963</t>
   </si>
   <si>
-    <t>Romanova et al., 2016</t>
-  </si>
-  <si>
     <t>long-range amplification of mtDNA</t>
   </si>
   <si>
@@ -776,9 +782,6 @@
     <t>KP161875</t>
   </si>
   <si>
-    <t>Romanova et al., 2015</t>
-  </si>
-  <si>
     <t>KX341964</t>
   </si>
   <si>
@@ -791,9 +794,6 @@
     <t>KM287572</t>
   </si>
   <si>
-    <t>Romanova et al., 2014</t>
-  </si>
-  <si>
     <t>&gt;17576</t>
   </si>
   <si>
@@ -815,9 +815,6 @@
     <t>MT047459</t>
   </si>
   <si>
-    <t>Romanova et al., 2021</t>
-  </si>
-  <si>
     <t>Echiuropus macronychus</t>
   </si>
   <si>
@@ -848,10 +845,10 @@
     <t>BK059230</t>
   </si>
   <si>
-    <t>Table 5. Genome assemblies of amphipods</t>
-  </si>
-  <si>
-    <t>Таблица 5. Сборки геномов амфипод</t>
+    <t>Supplementary Material 5. Nuclear genome assemblies of amphipods</t>
+  </si>
+  <si>
+    <t>Приложение 5. Сборки ядерных геномов амфипод</t>
   </si>
   <si>
     <t>Genome size, Gb (FIAD / FCM)</t>
@@ -881,12 +878,18 @@
     <t>Poynton et al., 2018, doi:10.1021/acs.est.8b00837</t>
   </si>
   <si>
+    <t>C:95.6%[S:94.6%,D:1.0%],F:2.0%,M:2.5%,n:1013</t>
+  </si>
+  <si>
     <t>GCA_000764305.2</t>
   </si>
   <si>
     <t>Trinorchestia longiramus</t>
   </si>
   <si>
+    <t>C:89.9%[S:85.3%,D:4.6%],F:6.6%,M:3.5%,n:1066</t>
+  </si>
+  <si>
     <t>Patra et al., 2020, doi: 10.1038/s41597-020-0424-8</t>
   </si>
   <si>
@@ -911,13 +914,16 @@
     <t>Hultgren et al., 2018, doi: 10.1093/biolinnean/blx153</t>
   </si>
   <si>
+    <t>98 % (CEGMA)</t>
+  </si>
+  <si>
     <t>Kao et al., 2016, doi:10.7554/eLife.20062</t>
   </si>
   <si>
     <t>GCA_001587735 (Phaw 5.0)</t>
   </si>
   <si>
-    <t>G. lacustris</t>
+    <t>Gammarus lacustris</t>
   </si>
   <si>
     <t>8 or 14</t>
@@ -933,7 +939,10 @@
     <t>?</t>
   </si>
   <si>
-    <t>G. roeselii</t>
+    <t>Gammarus roeselii</t>
+  </si>
+  <si>
+    <t>C:39.1%[S:36.8%,D:2.3%],F:25%,M:35.9%,n:1066</t>
   </si>
   <si>
     <t>Cormier et al., 2020, doi: 10.1093/gbe/evaa245</t>
@@ -942,10 +951,7 @@
     <t>GCA_016164225</t>
   </si>
   <si>
-    <t>E. verrucosus</t>
-  </si>
-  <si>
-    <t>Jeffery et al., 2014</t>
+    <t>C:11.7%[S:11.4%,D:0.3%],F:37.3%,M:50.9%,n:1066</t>
   </si>
   <si>
     <t>Rivarola-Duarte (thesis), 2021, https://nbn-resolving.de/urn:nbn:de:bsz:15-qucosa2-757709</t>
@@ -965,7 +971,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="6">
     <font>
       <name val="Arial"/>
       <family val="1"/>
@@ -973,10 +979,10 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1705386798" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1713934013" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default"/>
           </pm:charSpec>
         </ext>
       </extLst>
@@ -988,7 +994,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1705386798" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1713934013" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1004,41 +1010,10 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1705386798" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default" i="1"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="1"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1705386798" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1713934013" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" i="1"/>
             <pm:cs face="Basic Roman" sz="200" lang="default" i="1"/>
             <pm:ea face="Basic Roman" sz="200" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1705386798" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default"/>
-            <pm:cs face="Basic Roman" sz="200" lang="default"/>
-            <pm:ea face="Basic Roman" sz="200" lang="default"/>
           </pm:charSpec>
         </ext>
       </extLst>
@@ -1051,10 +1026,10 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1705386798" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1713934013" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default" weight="bold"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default" weight="bold"/>
           </pm:charSpec>
         </ext>
       </extLst>
@@ -1068,10 +1043,10 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1705386798" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1713934013" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold" i="1"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default" weight="bold" i="1"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default" weight="bold" i="1"/>
           </pm:charSpec>
         </ext>
       </extLst>
@@ -1079,51 +1054,21 @@
     <font>
       <name val="Arial"/>
       <family val="1"/>
-      <b/>
+      <i/>
       <color rgb="FF000000"/>
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1705386798" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
-            <pm:cs face="Basic Roman" sz="200" lang="default" weight="bold"/>
-            <pm:ea face="Basic Roman" sz="200" lang="default" weight="bold"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Carlito"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1705386798" ulstyle="none">
-            <pm:latin face="Carlito" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1705386798" ulstyle="none">
-            <pm:latin face="Times New Roman" sz="240" lang="default"/>
-            <pm:cs face="Basic Sans" sz="240" lang="default"/>
-            <pm:ea face="Basic Sans" sz="240" lang="default"/>
+          <pm:charSpec xmlns:pm="smNativeData" id="1713934013" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default" i="1"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default"/>
           </pm:charSpec>
         </ext>
       </extLst>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1152,23 +1097,6 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF9E"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1705386798" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
@@ -1189,13 +1117,13 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1705386798" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1713934013" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="14">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -1211,7 +1139,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1705386798"/>
+          <pm:border xmlns:pm="smNativeData" id="1713934013"/>
         </ext>
       </extLst>
     </border>
@@ -1230,7 +1158,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1705386798">
+          <pm:border xmlns:pm="smNativeData" id="1713934013">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1254,7 +1182,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1705386798">
+          <pm:border xmlns:pm="smNativeData" id="1713934013">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1277,7 +1205,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1705386798">
+          <pm:border xmlns:pm="smNativeData" id="1713934013">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1301,7 +1229,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1705386798">
+          <pm:border xmlns:pm="smNativeData" id="1713934013">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1325,7 +1253,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1705386798">
+          <pm:border xmlns:pm="smNativeData" id="1713934013">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1349,7 +1277,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1705386798">
+          <pm:border xmlns:pm="smNativeData" id="1713934013">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1373,7 +1301,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1705386798">
+          <pm:border xmlns:pm="smNativeData" id="1713934013">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1391,33 +1319,13 @@
       <top style="none">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1705386798"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1705386798">
+          <pm:border xmlns:pm="smNativeData" id="1713934013">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
@@ -1437,7 +1345,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1705386798">
+          <pm:border xmlns:pm="smNativeData" id="1713934013">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1460,7 +1368,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1705386798">
+          <pm:border xmlns:pm="smNativeData" id="1713934013">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1483,7 +1391,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1705386798">
+          <pm:border xmlns:pm="smNativeData" id="1713934013">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1492,7 +1400,7 @@
       </extLst>
     </border>
     <border>
-      <left style="none">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="none">
@@ -1506,55 +1414,9 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1705386798">
+          <pm:border xmlns:pm="smNativeData" id="1713934013">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1705386798">
-            <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1705386798">
-            <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
@@ -1574,7 +1436,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1705386798"/>
+          <pm:border xmlns:pm="smNativeData" id="1713934013"/>
         </ext>
       </extLst>
     </border>
@@ -1582,13 +1444,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1600,20 +1462,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1625,7 +1486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1637,7 +1498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1667,103 +1528,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1772,7 +1593,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -1782,19 +1624,9 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1705386798" count="1">
-        <pm:charStyle name="Normal" fontId="0"/>
+      <pm:charStyles xmlns:pm="smNativeData" id="1713934013" count="1">
+        <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1705386798" count="8">
-        <pm:color name="Color 24" rgb="FFFF9E"/>
-        <pm:color name="Color 25" rgb="018080"/>
-        <pm:color name="Color 26" rgb="00A300"/>
-        <pm:color name="Color 27" rgb="A3A300"/>
-        <pm:color name="Color 28" rgb="D1D100"/>
-        <pm:color name="Color 29" rgb="FFFF3D"/>
-        <pm:color name="Color 30" rgb="FFFF5C"/>
-        <pm:color name="Color 31" rgb="FFFFE0"/>
-      </pm:colors>
     </ext>
   </extLst>
 </styleSheet>
@@ -1849,8 +1681,8 @@
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Arial"/>
-        <a:ea typeface="SimSun"/>
-        <a:cs typeface="Times New Roman"/>
+        <a:ea typeface="Basic Roman"/>
+        <a:cs typeface="Basic Roman"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2058,122 +1890,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
   <cols>
-    <col min="1" max="1" width="33.477477" customWidth="1"/>
-    <col min="2" max="2" width="8.603604" customWidth="1"/>
-    <col min="3" max="3" width="9.945946" customWidth="1"/>
-    <col min="4" max="4" width="12.630631" customWidth="1"/>
-    <col min="5" max="5" width="19.963964" customWidth="1"/>
-    <col min="6" max="6" width="8.513514" customWidth="1"/>
-    <col min="7" max="7" width="9.810811" customWidth="1"/>
-    <col min="8" max="8" width="19.324324" customWidth="1"/>
-    <col min="9" max="9" width="33.963964" customWidth="1"/>
+    <col min="1" max="1" width="33.423423" customWidth="1"/>
+    <col min="2" max="2" width="8.567568" customWidth="1"/>
+    <col min="4" max="4" width="12.567568" customWidth="1"/>
+    <col min="5" max="5" width="20.000000" customWidth="1"/>
+    <col min="6" max="6" width="8.567568" customWidth="1"/>
+    <col min="7" max="7" width="9.855856" customWidth="1"/>
+    <col min="8" max="8" width="19.288288" customWidth="1"/>
+    <col min="9" max="9" width="34.000000" customWidth="1"/>
     <col min="10" max="10" width="16.000000" customWidth="1"/>
-    <col min="11" max="11" width="9.090090" customWidth="1"/>
-    <col min="12" max="12" width="16.396396" customWidth="1"/>
-    <col min="13" max="13" width="17.405405" customWidth="1"/>
-    <col min="14" max="14" width="8.603604" customWidth="1"/>
-    <col min="15" max="15" width="9.810811" customWidth="1"/>
-    <col min="16" max="16" width="9.918919" customWidth="1"/>
-    <col min="17" max="17" width="19.027027" customWidth="1"/>
+    <col min="11" max="11" width="9.144144" customWidth="1"/>
+    <col min="12" max="12" width="16.423423" customWidth="1"/>
+    <col min="13" max="13" width="17.423423" customWidth="1"/>
+    <col min="14" max="14" width="8.567568" customWidth="1"/>
+    <col min="15" max="16" width="9.855856" customWidth="1"/>
+    <col min="17" max="17" width="19.000000" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
       <c r="D1"/>
       <c r="E1"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
       <c r="H1"/>
       <c r="I1"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="44"/>
-      <c r="M1"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="44"/>
-      <c r="Q1"/>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="40"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="40"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44"/>
-      <c r="M2"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
-      <c r="Q2"/>
-    </row>
-    <row r="3" spans="1:17" s="52" customFormat="1" ht="13.60">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="55"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="55"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="40"/>
+    </row>
+    <row r="3" spans="1:16" s="41" customFormat="1" ht="13.60">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="44"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="44"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="46" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="46" t="s">
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="46" t="s">
+      <c r="K4" s="58"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="47"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="51"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="60"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="9"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -2182,10 +2008,10 @@
       <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -2194,10 +2020,10 @@
       <c r="H5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="15" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="7" t="s">
@@ -2206,10 +2032,10 @@
       <c r="L5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="11" t="s">
         <v>7</v>
       </c>
       <c r="O5" s="7" t="s">
@@ -2218,15 +2044,15 @@
       <c r="P5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="13" t="n">
         <v>9</v>
       </c>
       <c r="C6" s="3">
@@ -2236,10 +2062,10 @@
       <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="16" t="n">
+      <c r="F6" s="15" t="n">
         <v>25</v>
       </c>
       <c r="G6" s="3" t="n">
@@ -2248,10 +2074,10 @@
       <c r="H6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="16" t="n">
+      <c r="J6" s="15" t="n">
         <v>25</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -2260,80 +2086,80 @@
       <c r="L6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="15" t="s">
+      <c r="M6" s="19" t="s">
         <v>19</v>
       </c>
+      <c r="N6" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="O6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="15" t="n">
+      <c r="A7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="14" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="16" t="n">
+      <c r="F7" s="15" t="n">
         <v>1</v>
       </c>
       <c r="G7" s="3" t="n">
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="12" t="n">
+      <c r="J7" s="11" t="n">
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="15" t="s">
+      <c r="M7" s="19" t="s">
         <v>19</v>
       </c>
+      <c r="N7" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="O7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="16" t="n">
+      <c r="A8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="15" t="n">
         <v>2</v>
       </c>
       <c r="C8" s="3">
@@ -2341,53 +2167,53 @@
         <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="32" t="s">
-        <v>19</v>
+      <c r="F8" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="16" t="n">
+      <c r="A9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="15" t="n">
         <v>4</v>
       </c>
       <c r="C9" s="3">
@@ -2397,537 +2223,537 @@
       <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="32" t="s">
-        <v>19</v>
+      <c r="F9" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="16" t="n">
+      <c r="A10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="15" t="n">
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="32" t="s">
-        <v>19</v>
+      <c r="E10" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="16" t="n">
+      <c r="F11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="16" t="n">
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="30" t="s">
+      <c r="C16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="16" t="n">
+      <c r="E16" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="16" t="n">
-        <v>2</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q17" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="9" t="s">
         <v>37</v>
       </c>
+      <c r="B18" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="C18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="D18" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="E18" s="38" t="s">
         <v>41</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="G18" s="3" t="n">
         <v>47</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="16" t="s">
-        <v>19</v>
+      <c r="I18" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q18" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="16" t="n">
-        <v>11</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>45</v>
+      <c r="F19" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="G19" s="3" t="n">
         <v>27</v>
@@ -2935,51 +2761,51 @@
       <c r="H19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>19</v>
+      <c r="I19" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N19" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q19" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>19</v>
+      <c r="A20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="15" t="n">
         <v>5</v>
       </c>
       <c r="G20" s="3" t="n">
@@ -2988,263 +2814,263 @@
       <c r="H20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>19</v>
+      <c r="I20" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N20" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q20" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>19</v>
+      <c r="A21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="15" t="n">
         <v>11</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>59</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>19</v>
+        <v>50</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q21" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>19</v>
+      <c r="A22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="15" t="n">
         <v>20</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>119</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>19</v>
+        <v>50</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q22" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>19</v>
+      <c r="A23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="15" t="n">
         <v>4</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>13</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>19</v>
+        <v>50</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N23" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q23" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>19</v>
+      <c r="A24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="15" t="n">
         <v>5</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>16</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>19</v>
+        <v>54</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N24" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q24" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>19</v>
+      <c r="A25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="15" t="n">
         <v>4</v>
       </c>
       <c r="G25" s="6" t="n">
@@ -3253,210 +3079,210 @@
       <c r="H25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>19</v>
+      <c r="I25" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M25" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N25" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M25" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q25" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>19</v>
+      <c r="A26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>56</v>
+        <v>20</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="13" t="n">
+        <v>28</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>95</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="J26" s="15" t="s">
-        <v>19</v>
+      <c r="J26" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M26" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N26" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q26" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>19</v>
+      <c r="B27" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N27" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="14" t="n">
         <v>2</v>
       </c>
       <c r="O27" s="4" t="n">
         <v>2</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q27" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q27" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>19</v>
+      <c r="B28" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M28" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N28" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="14" t="n">
         <v>2</v>
       </c>
       <c r="O28" s="4" t="n">
         <v>2</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q28" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="15" t="n">
+      <c r="B29" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="C29" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="34" t="s">
+      <c r="C29" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="15" t="n">
+      <c r="E29" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="14" t="n">
         <v>20</v>
       </c>
       <c r="G29" s="6" t="n">
@@ -3465,10 +3291,10 @@
       <c r="H29" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="24" t="s">
+      <c r="I29" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="J29" s="15" t="n">
+      <c r="J29" s="14" t="n">
         <v>3</v>
       </c>
       <c r="K29" s="4" t="s">
@@ -3477,39 +3303,39 @@
       <c r="L29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="M29" s="36" t="s">
+      <c r="M29" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="N29" s="15" t="s">
-        <v>19</v>
+      <c r="N29" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q29" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q29" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="14" t="n">
+      <c r="B30" s="13" t="n">
         <v>29</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="14" t="n">
+      <c r="F30" s="13" t="n">
         <v>16</v>
       </c>
       <c r="G30" s="6" t="n">
@@ -3518,130 +3344,130 @@
       <c r="H30" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I30" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="J30" s="15" t="s">
-        <v>19</v>
+      <c r="J30" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M30" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N30" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M30" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q30" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="14"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="14" t="n">
+      <c r="E31" s="20"/>
+      <c r="F31" s="13" t="n">
         <v>3</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>22</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I31" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="J31" s="15" t="s">
-        <v>19</v>
+      <c r="J31" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M31" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N31" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M31" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q31" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="29" t="s">
+      <c r="B32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G32" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="H32" s="28" t="s">
+      <c r="H32" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="25" t="s">
+      <c r="I32" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="J32" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="K32" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L32" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="M32" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="N32" s="15" t="s">
-        <v>19</v>
+      <c r="J32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q32" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q32" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="2:12">
@@ -3656,8 +3482,7 @@
       <c r="J33" s="1"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="35"/>
+    <row r="34" spans="2:12">
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -3670,9 +3495,7 @@
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -4063,7 +3886,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1705386798" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1713934013" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4072,14 +3895,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1705386798" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1705386798" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1713934013" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1713934013" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1705386798" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1713934013" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4090,956 +3913,974 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
   <cols>
     <col min="1" max="1" width="16.423423" customWidth="1"/>
-    <col min="2" max="2" width="32.342342" customWidth="1"/>
-    <col min="3" max="3" width="13.522523" customWidth="1"/>
-    <col min="4" max="4" width="10.810811" customWidth="1"/>
-    <col min="5" max="5" width="2.909910" customWidth="1"/>
-    <col min="6" max="6" width="19.711712" customWidth="1"/>
-    <col min="7" max="7" width="16.630631" customWidth="1"/>
-    <col min="8" max="8" width="15.612613" customWidth="1"/>
-    <col min="9" max="9" width="16.333333" customWidth="1"/>
-    <col min="10" max="10" width="20.180180" customWidth="1"/>
+    <col min="2" max="2" width="32.288288" customWidth="1"/>
+    <col min="3" max="3" width="13.567568" customWidth="1"/>
+    <col min="4" max="4" width="10.855856" customWidth="1"/>
+    <col min="5" max="5" width="2.855856" customWidth="1"/>
+    <col min="6" max="6" width="23.288288" customWidth="1"/>
+    <col min="7" max="7" width="16.567568" customWidth="1"/>
+    <col min="8" max="8" width="15.567568" customWidth="1"/>
+    <col min="9" max="9" width="16.288288" customWidth="1"/>
+    <col min="10" max="10" width="20.144144" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="44"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="44"/>
+        <v>76</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="40"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="40"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="40"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="44" t="s">
+      <c r="B4" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="C4" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="44" t="s">
+      <c r="E4" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="F4" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="G4" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="H4" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="I4" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="J4" s="40" t="s">
         <v>86</v>
-      </c>
-      <c r="J4" s="44" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="G5" t="n">
         <v>5.82000000000000028</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" t="n">
         <v>8.32000000000000028</v>
       </c>
       <c r="H6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I6" t="n">
         <v>8.51999999999999957</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="n">
         <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="n">
         <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" t="n">
         <v>5.42999999999999972</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="n">
         <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="n">
         <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="1"/>
       <c r="G11" t="n">
         <v>2.14999999999999991</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="n">
         <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="n">
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="n">
         <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G14" t="n">
         <v>7.94000000000000039</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="E15" t="n">
         <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" s="1"/>
       <c r="G16" t="n">
         <v>6.12999999999999989</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="1"/>
       <c r="G17" t="n">
         <v>7.24000000000000021</v>
       </c>
       <c r="H17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I17" t="n">
         <v>8.15000000000000036</v>
       </c>
       <c r="J17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" s="1"/>
+      <c r="G18" t="n">
+        <v>5.94000000000000039</v>
+      </c>
+      <c r="H18" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D19" s="1"/>
       <c r="G19" t="n">
         <v>4.92999999999999972</v>
       </c>
       <c r="H19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" t="n">
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G20" t="n">
         <v>6.29999999999999982</v>
       </c>
       <c r="H20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" t="n">
         <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G21" t="n">
         <v>3.33000000000000007</v>
       </c>
       <c r="H21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" t="n">
         <v>64</v>
       </c>
       <c r="F22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D23" s="1"/>
       <c r="G23" t="n">
         <v>5.38999999999999968</v>
       </c>
       <c r="H23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" t="n">
         <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G24" t="n">
         <v>3.81999999999999993</v>
       </c>
       <c r="H24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D25" s="1"/>
       <c r="G25" t="n">
         <v>5.69000000000000039</v>
       </c>
       <c r="H25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E26" t="n">
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" t="n">
         <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" t="n">
         <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G28" t="n">
         <v>3.77000000000000002</v>
       </c>
       <c r="H28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D29" s="1"/>
       <c r="G29" t="n">
         <v>4.21999999999999975</v>
       </c>
       <c r="H29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D30" s="1"/>
       <c r="G30" t="n">
         <v>4.71999999999999975</v>
       </c>
       <c r="H30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E31" t="n">
         <v>52</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" t="n">
-        <v>52</v>
-      </c>
-      <c r="F32" t="s">
-        <v>94</v>
-      </c>
       <c r="G32" t="n">
-        <v>6.09999999999999964</v>
+        <v>5.65000000000000036</v>
       </c>
       <c r="H32" t="s">
-        <v>90</v>
-      </c>
-      <c r="I32" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="J32" s="74" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" t="n">
         <v>52</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G33" t="n">
-        <v>3.95000000000000018</v>
+        <v>6.09999999999999964</v>
       </c>
       <c r="H33" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="I33" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="J33" s="55" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" t="n">
         <v>52</v>
       </c>
       <c r="F34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G34" t="n">
-        <v>10.5700000000000003</v>
+        <v>3.95000000000000018</v>
       </c>
       <c r="H34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" t="n">
         <v>52</v>
       </c>
       <c r="F35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G35" t="n">
-        <v>3.68000000000000016</v>
+        <v>10.5700000000000003</v>
       </c>
       <c r="H35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B36" s="75" t="s">
-        <v>141</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" t="n">
         <v>52</v>
       </c>
       <c r="F36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G36" t="n">
-        <v>7.59999999999999876</v>
+        <v>3.68000000000000016</v>
       </c>
       <c r="H36" t="s">
-        <v>90</v>
-      </c>
-      <c r="I36" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" t="n">
+        <v>52</v>
+      </c>
+      <c r="F37" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" t="n">
+        <v>7.59999999999999964</v>
+      </c>
+      <c r="H37" t="s">
+        <v>89</v>
+      </c>
+      <c r="I37" t="n">
         <v>8.58000000000000007</v>
       </c>
-      <c r="J36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="G37" t="n">
-        <v>5.84999999999999964</v>
-      </c>
-      <c r="H37" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="J37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" t="n">
-        <v>52</v>
-      </c>
-      <c r="F38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="G38" t="n">
+        <v>5.84999999999999964</v>
+      </c>
+      <c r="H38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" t="n">
         <v>52</v>
       </c>
       <c r="F39" t="s">
-        <v>94</v>
-      </c>
-      <c r="G39" t="n">
-        <v>4.70999999999999996</v>
-      </c>
-      <c r="H39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" t="n">
         <v>52</v>
       </c>
       <c r="F40" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4.70999999999999996</v>
+      </c>
+      <c r="H40" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D41" s="1"/>
+      <c r="E41" t="n">
+        <v>52</v>
+      </c>
+      <c r="F41" t="s">
+        <v>93</v>
+      </c>
       <c r="G41" t="n">
-        <v>3.66000000000000014</v>
+        <v>4.20000000000000018</v>
       </c>
       <c r="H41" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" t="n">
-        <v>52</v>
-      </c>
-      <c r="F42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="G42" t="n">
+        <v>3.66000000000000014</v>
+      </c>
+      <c r="H42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" t="n">
+        <v>52</v>
+      </c>
+      <c r="F43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="G43" t="n">
+      <c r="D44" s="1"/>
+      <c r="G44" t="n">
         <v>3.93999999999999986</v>
       </c>
-      <c r="H43" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="1" t="s">
+      <c r="H44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B44" s="75" t="s">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" t="n">
-        <v>52</v>
-      </c>
-      <c r="F44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="D45" s="1"/>
-      <c r="E45" t="n">
-        <v>52</v>
-      </c>
-      <c r="F45" t="s">
-        <v>94</v>
+      <c r="G45" t="n">
+        <v>4.09999999999999964</v>
+      </c>
+      <c r="H45" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B46" s="1"/>
+        <v>156</v>
+      </c>
+      <c r="B46" s="67" t="s">
+        <v>157</v>
+      </c>
       <c r="C46" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" t="n">
         <v>52</v>
       </c>
       <c r="F46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" t="n">
         <v>52</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" t="n">
         <v>52</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="G49" t="n">
-        <v>4.55999999999999961</v>
-      </c>
-      <c r="H49" t="s">
-        <v>90</v>
+      <c r="E49" t="n">
+        <v>52</v>
+      </c>
+      <c r="F49" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B50" s="75" t="s">
-        <v>141</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" t="n">
         <v>52</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G50" t="n">
-        <v>5.20999999999999996</v>
+        <v>5.63999999999999968</v>
       </c>
       <c r="H50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E51" t="n">
-        <v>52</v>
-      </c>
-      <c r="F51" t="s">
-        <v>94</v>
+        <v>166</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="G51" t="n">
+        <v>4.55999999999999961</v>
+      </c>
+      <c r="H51" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B52" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="B52" s="67" t="s">
+        <v>141</v>
+      </c>
       <c r="C52" s="1" t="s">
         <v>168</v>
       </c>
@@ -5048,101 +4889,141 @@
         <v>52</v>
       </c>
       <c r="F52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G52" t="n">
-        <v>6.25999999999999979</v>
+        <v>5.20999999999999996</v>
       </c>
       <c r="H52" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E53" t="n">
+        <v>52</v>
+      </c>
+      <c r="F53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="G53" t="n">
-        <v>7.44000000000000039</v>
-      </c>
-      <c r="H53" t="s">
-        <v>90</v>
-      </c>
-      <c r="I53" t="n">
-        <v>7.83999999999999986</v>
-      </c>
-      <c r="J53" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" t="n">
         <v>52</v>
       </c>
       <c r="F54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="G54" t="n">
+        <v>6.25999999999999979</v>
+      </c>
+      <c r="H54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D55" s="1"/>
       <c r="G55" t="n">
-        <v>3.18000000000000016</v>
+        <v>7.44000000000000039</v>
       </c>
       <c r="H55" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="I55" t="n">
+        <v>7.83999999999999986</v>
+      </c>
+      <c r="J55" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" t="n">
         <v>52</v>
       </c>
       <c r="F56" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D57" s="1"/>
       <c r="G57" t="n">
+        <v>3.18000000000000016</v>
+      </c>
+      <c r="H57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" t="n">
+        <v>52</v>
+      </c>
+      <c r="F58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="G59" t="n">
         <v>16.3599999999999994</v>
       </c>
-      <c r="H57" t="s">
-        <v>90</v>
+      <c r="H59" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5153,7 +5034,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1705386798" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1713934013" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5162,14 +5043,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1705386798" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1705386798" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1713934013" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1713934013" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1705386798" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1713934013" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -5180,175 +5061,171 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
   <cols>
-    <col min="1" max="1" width="25.135135" customWidth="1"/>
-    <col min="2" max="2" width="11.828829" customWidth="1"/>
-    <col min="3" max="3" width="25.207207" customWidth="1"/>
-    <col min="4" max="4" width="41.459459" customWidth="1"/>
+    <col min="1" max="1" width="25.144144" customWidth="1"/>
+    <col min="2" max="2" width="11.855856" customWidth="1"/>
+    <col min="3" max="3" width="25.144144" customWidth="1"/>
+    <col min="4" max="4" width="41.423423" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+        <v>181</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
       <c r="D1"/>
       <c r="E1"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
       <c r="H1"/>
       <c r="I1"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="44"/>
-      <c r="M1"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="44"/>
-      <c r="Q1"/>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="40"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="40"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
+        <v>182</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44"/>
-      <c r="M2"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
-      <c r="Q2"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="40"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="39" t="s">
+      <c r="B4" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="57" t="s">
-        <v>183</v>
+      <c r="A5" s="45" t="s">
+        <v>185</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="59" t="s">
-        <v>55</v>
+      <c r="A6" s="47" t="s">
+        <v>56</v>
       </c>
       <c r="B6" s="3">
         <f>0.8+0.7</f>
         <v>1.5</v>
       </c>
-      <c r="C6" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>187</v>
+      <c r="C6" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="59" t="s">
-        <v>46</v>
+      <c r="A7" s="47" t="s">
+        <v>47</v>
       </c>
       <c r="B7" s="3">
         <f>1.9+0.5</f>
         <v>2.39999999999999991</v>
       </c>
-      <c r="C7" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>187</v>
+      <c r="C7" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="59" t="s">
-        <v>189</v>
+      <c r="A8" s="47" t="s">
+        <v>191</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>4.5</v>
       </c>
-      <c r="C8" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>187</v>
+      <c r="C8" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="59" t="s">
-        <v>191</v>
+      <c r="A9" s="47" t="s">
+        <v>193</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>1.30000000000000004</v>
       </c>
-      <c r="C9" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>193</v>
+      <c r="C9" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="47" t="s">
         <v>70</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>195</v>
+      <c r="C10" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="47" t="s">
         <v>71</v>
       </c>
       <c r="B11" s="3">
         <f>2.3+7.6</f>
-        <v>9.89999999999999858</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>187</v>
+        <v>9.90000000000000036</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -5359,7 +5236,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1705386798" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1713934013" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5368,14 +5245,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1705386798" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1705386798" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1713934013" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1713934013" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1705386798" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1713934013" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -5386,362 +5263,357 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
   <cols>
-    <col min="1" max="1" width="25.135135" customWidth="1"/>
-    <col min="2" max="2" width="15.945946" customWidth="1"/>
-    <col min="3" max="3" width="10.018018" customWidth="1"/>
-    <col min="4" max="4" width="17.918919" customWidth="1"/>
-    <col min="5" max="5" width="22.837838" customWidth="1"/>
-    <col min="6" max="6" width="28.234234" customWidth="1"/>
+    <col min="1" max="1" width="25.144144" customWidth="1"/>
+    <col min="2" max="2" width="16.000000" customWidth="1"/>
+    <col min="4" max="4" width="17.855856" customWidth="1"/>
+    <col min="5" max="5" width="22.855856" customWidth="1"/>
+    <col min="6" max="6" width="28.288288" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+        <v>200</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
       <c r="D1"/>
       <c r="E1"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
       <c r="H1"/>
       <c r="I1"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="44"/>
-      <c r="M1"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="44"/>
-      <c r="Q1"/>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="40"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="40"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
+        <v>201</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44"/>
-      <c r="M2"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
-      <c r="Q2"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="40"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="45" t="n">
+        <v>18114</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="45" t="n">
+        <v>17118</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="45" t="n">
+        <v>14370</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="45" t="n">
+        <v>15314</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="45" t="n">
+        <v>15534</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="45" t="n">
+        <v>15759</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="45" t="n">
+        <v>42256</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="E5" s="39" t="s">
+      <c r="F15" s="36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="F5" s="39" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="C6" s="57" t="n">
-        <v>18114</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="E6" s="39" t="s">
+      <c r="C16" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="C17" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" s="36" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="C8" s="57" t="n">
-        <v>17118</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="C9" s="57" t="n">
-        <v>14370</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="C10" s="57" t="n">
-        <v>15314</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="C11" s="57" t="n">
-        <v>15534</v>
-      </c>
-      <c r="D11" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>222</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="59" t="s">
-        <v>226</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="C14" s="57" t="n">
-        <v>15759</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" s="57" t="n">
-        <v>42256</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="D16" s="39" t="s">
+      <c r="C18" s="45" t="n">
+        <v>17079</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="E18" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="F18" s="36" t="s">
         <v>233</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>236</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="C18" s="57" t="n">
-        <v>17079</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -5752,7 +5624,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1705386798" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1713934013" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5761,14 +5633,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1705386798" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1705386798" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1713934013" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1713934013" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1705386798" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1713934013" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -5779,298 +5651,297 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
   <cols>
-    <col min="1" max="1" width="20.387387" customWidth="1"/>
-    <col min="2" max="2" width="26.765766" customWidth="1"/>
-    <col min="3" max="3" width="42.450450" customWidth="1"/>
-    <col min="4" max="4" width="9.126126" customWidth="1"/>
-    <col min="5" max="5" width="9.729730" customWidth="1"/>
-    <col min="6" max="6" width="9.315315" customWidth="1"/>
-    <col min="7" max="7" width="22.234234" customWidth="1"/>
-    <col min="8" max="8" width="42.135135" customWidth="1"/>
-    <col min="9" max="9" width="23.927928" customWidth="1"/>
+    <col min="1" max="1" width="20.423423" customWidth="1"/>
+    <col min="2" max="2" width="26.711712" customWidth="1"/>
+    <col min="3" max="3" width="42.423423" customWidth="1"/>
+    <col min="4" max="4" width="9.144144" customWidth="1"/>
+    <col min="5" max="5" width="9.711712" customWidth="1"/>
+    <col min="6" max="6" width="9.288288" customWidth="1"/>
+    <col min="7" max="7" width="22.288288" customWidth="1"/>
+    <col min="8" max="8" width="42.144144" customWidth="1"/>
+    <col min="9" max="9" width="23.855856" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+        <v>239</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
       <c r="D1"/>
       <c r="E1"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
       <c r="H1"/>
       <c r="I1"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="44"/>
-      <c r="M1"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="44"/>
-      <c r="Q1"/>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="40"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="40"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
+        <v>240</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44"/>
-      <c r="M2"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
-      <c r="Q2"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="40"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="D4" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="E4" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="F4" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="G4" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="H4" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="52" t="s">
         <v>247</v>
       </c>
-      <c r="H4" s="64" t="s">
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" s="46" t="n">
+        <v>1.10000000000000009</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>1.19999999999999996</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>215</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>1.10000000000000009</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>121</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>1.39999999999999991</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>1.10000000000000009</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="46" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>3.60000000000000009</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>2.20000000000000018</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>20200</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>3.39999999999999991</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>3.20000000000000018</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>4.79999999999999982</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="46" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I4" s="65" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="66" t="s">
-        <v>249</v>
-      </c>
-      <c r="B5" s="67" t="n">
-        <v>1.10000000000000009</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="D5" s="68" t="n">
-        <v>1.19999999999999996</v>
-      </c>
-      <c r="E5" s="68" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="68" t="n">
-        <v>215</v>
-      </c>
-      <c r="G5" s="69" t="n">
-        <v>91</v>
-      </c>
-      <c r="H5" s="73" t="s">
-        <v>250</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="66" t="s">
-        <v>252</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="68" t="n">
-        <v>1.10000000000000009</v>
-      </c>
-      <c r="E6" s="68" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F6" s="68" t="n">
-        <v>121</v>
-      </c>
-      <c r="G6" s="69" t="n">
-        <v>90</v>
-      </c>
-      <c r="H6" s="73" t="s">
-        <v>253</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="66" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="68" t="n">
-        <v>1.39999999999999991</v>
-      </c>
-      <c r="E7" s="68" t="n">
-        <v>1.10000000000000009</v>
-      </c>
-      <c r="F7" s="68" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="G7" s="70" t="s">
-        <v>256</v>
-      </c>
-      <c r="H7" s="73" t="s">
-        <v>257</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="66" t="s">
-        <v>259</v>
-      </c>
-      <c r="B8" s="67" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" s="67" t="s">
-        <v>260</v>
-      </c>
-      <c r="D8" s="68" t="n">
-        <v>3.60000000000000009</v>
-      </c>
-      <c r="E8" s="68" t="n">
-        <v>2.20000000000000018</v>
-      </c>
-      <c r="F8" s="68" t="n">
-        <v>20200</v>
-      </c>
-      <c r="G8" s="69" t="n">
-        <v>98</v>
-      </c>
-      <c r="H8" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="66" t="s">
-        <v>263</v>
-      </c>
-      <c r="B9" s="71" t="s">
-        <v>264</v>
-      </c>
-      <c r="C9" s="72" t="s">
-        <v>265</v>
-      </c>
-      <c r="D9" s="68" t="n">
-        <v>14</v>
-      </c>
-      <c r="E9" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="68" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G9" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="73" t="s">
-        <v>266</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="66" t="s">
-        <v>268</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="68" t="n">
-        <v>3.39999999999999991</v>
-      </c>
-      <c r="E10" s="68" t="n">
-        <v>3.20000000000000018</v>
-      </c>
-      <c r="F10" s="68" t="n">
-        <v>4.79999999999999982</v>
-      </c>
-      <c r="G10" s="69" t="n">
-        <v>80</v>
-      </c>
-      <c r="H10" s="73" t="s">
+      <c r="E11" s="3" t="n">
+        <v>5.59999999999999964</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="I11" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="I10" s="39" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="B11" s="67" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>272</v>
-      </c>
-      <c r="D11" s="68" t="n">
-        <v>10</v>
-      </c>
-      <c r="E11" s="68" t="n">
-        <v>5.59999999999999964</v>
-      </c>
-      <c r="F11" s="68" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G11" s="69" t="n">
-        <v>49</v>
-      </c>
-      <c r="H11" s="73" t="s">
-        <v>273</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>267</v>
-      </c>
+    </row>
+    <row r="14" spans="7:7">
+      <c r="G14" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6080,7 +5951,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1705386798" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1713934013" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6089,14 +5960,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1705386798" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1705386798" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1713934013" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1713934013" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1705386798" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1713934013" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
